--- a/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,514 +453,922 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45341</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>336</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B5" t="n">
         <v>41</v>
       </c>
-      <c r="C5" t="n">
-        <v>32</v>
+      <c r="C5" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45368</v>
       </c>
       <c r="B6" t="n">
         <v>37</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45390</v>
+        <v>45396</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45397</v>
+        <v>45403</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45404</v>
+        <v>45410</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>45418</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>192</v>
+      <c r="D14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45431</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>16</v>
+      <c r="C15" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
-        <v>96</v>
+      <c r="C17" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>16</v>
+      <c r="C19" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>45466</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
         <v>45460</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B27" t="n">
         <v>18</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B28" t="n">
         <v>16</v>
       </c>
-      <c r="C28" t="n">
-        <v>16</v>
+      <c r="C28" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B29" t="n">
         <v>70</v>
       </c>
-      <c r="C29" t="n">
-        <v>32</v>
+      <c r="C29" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B30" t="n">
         <v>17</v>
       </c>
-      <c r="C30" t="n">
-        <v>48</v>
+      <c r="C30" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" t="n">
-        <v>64</v>
+      <c r="C31" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B33" t="n">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B34" t="n">
         <v>23</v>
       </c>
-      <c r="C34" t="n">
-        <v>96</v>
+      <c r="C34" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B35" t="n">
         <v>13</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B36" t="n">
         <v>23</v>
       </c>
-      <c r="C36" t="n">
-        <v>16</v>
+      <c r="C36" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B37" t="n">
         <v>11</v>
       </c>
-      <c r="C37" t="n">
-        <v>128</v>
+      <c r="C37" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B38" t="n">
         <v>7</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B39" t="n">
         <v>24</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B40" t="n">
         <v>29</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B41" t="n">
         <v>34</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B42" t="n">
         <v>33</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B43" t="n">
         <v>15</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B44" t="n">
         <v>21</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B45" t="n">
         <v>17</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
-      <c r="C47" t="n">
-        <v>0</v>
+      <c r="C47" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B2" t="n">
+        <v>336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-90.47619047619048</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B4" t="n">
+        <v>192</v>
+      </c>
+      <c r="C4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-91.66666666666666</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96</v>
+      </c>
+      <c r="C6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B11" t="n">
+        <v>64</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B14" t="n">
+        <v>128</v>
+      </c>
+      <c r="C14" t="n">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B2" t="n">
+        <v>83.69230769230769</v>
+      </c>
+      <c r="C2" t="n">
+        <v>336</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20.30769230769228</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,656 +453,513 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45340</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45347</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45354</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45361</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45368</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45375</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45382</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45389</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45396</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45403</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45410</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="C14" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="C15" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="C17" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="C19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>7</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>18</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>16</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="C28" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>70</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="C29" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>17</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="C30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>7</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="C31" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>9</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>23</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+      <c r="C34" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>13</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>23</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="C36" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>11</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="C37" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>7</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B39" t="n">
         <v>24</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B40" t="n">
         <v>29</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>34</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B42" t="n">
         <v>33</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B43" t="n">
         <v>15</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B44" t="n">
         <v>21</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B45" t="n">
         <v>17</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>336</v>
@@ -1155,7 +1012,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>32</v>
@@ -1166,7 +1023,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>192</v>
@@ -1177,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -1188,7 +1045,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>96</v>
@@ -1199,7 +1056,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -1210,7 +1067,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -1221,7 +1078,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>32</v>
@@ -1232,7 +1089,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>48</v>
@@ -1243,7 +1100,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>64</v>
@@ -1254,7 +1111,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>96</v>
@@ -1265,7 +1122,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>16</v>
@@ -1276,7 +1133,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>128</v>

--- a/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +819,14 @@
       </c>
       <c r="B47" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9667,7 +9675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10833,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
@@ -10844,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -10855,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -10877,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -10998,6 +11006,17 @@
         <v>3</v>
       </c>
       <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,14 @@
       </c>
       <c r="B48" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9675,7 +9683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10533,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
@@ -10544,7 +10552,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
@@ -10643,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -10654,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89">
@@ -10665,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -10676,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91">
@@ -11017,6 +11025,17 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0CTTY491F_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,6 +835,14 @@
       </c>
       <c r="B49" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9683,7 +9691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11036,6 +11044,17 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
         <v>0</v>
       </c>
     </row>
